--- a/st00.docs/html&css정리.20190615 (1).xlsx
+++ b/st00.docs/html&css정리.20190615 (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="7515" windowHeight="5340" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="7515" windowHeight="5340" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="html" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="484">
   <si>
     <t>텍스트 태그</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>text-indent</t>
-  </si>
-  <si>
-    <t>a:visited</t>
   </si>
   <si>
     <t>속성명</t>
@@ -471,33 +468,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a:focused</t>
-  </si>
-  <si>
     <t>태그에 초점이 있을 때</t>
   </si>
   <si>
     <t>선택자:focus</t>
   </si>
   <si>
-    <t>a:link</t>
-  </si>
-  <si>
     <t>선택자:link</t>
   </si>
   <si>
     <t>선택자:visited</t>
   </si>
   <si>
-    <t>a:hover</t>
-  </si>
-  <si>
-    <t>선택자:hover</t>
-  </si>
-  <si>
-    <t>a:active</t>
-  </si>
-  <si>
     <t>태그를 누르고 있는 경우</t>
   </si>
   <si>
@@ -547,63 +529,7 @@
     <t>짝수</t>
   </si>
   <si>
-    <r>
-      <t>:nth-child(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="나눔고딕코딩"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>even</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕코딩"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>홀수</t>
-  </si>
-  <si>
-    <r>
-      <t>:nth-child(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="나눔고딕코딩"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>odd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕코딩"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>:last-child</t>
-  </si>
-  <si>
-    <t>:first-child</t>
   </si>
   <si>
     <t>특정 요소가 아닐 때 스타일 적용하기</t>
@@ -1212,11 +1138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>box-sizing: border-box;
-box-sizing: content-box; &lt;--디폴트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>박스 너비 기준 정하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1245,31 +1166,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>border-left:1px solid #00ff00;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>border-left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>border-bottom:1px solid #0000ff;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>border-bottom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>border-right:1px solid #00ff00;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>border-right</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border-top:1px solid #00ff00;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1323,13 +1228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list-style:none;
-list-style:disc inside ;
-list-style:square ouside;
-list-style:circle;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>목록 스타일 지정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1445,23 +1343,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>line-height: 4em;
-line-height: 15pt;
-line-height: 15px;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>line-height</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>none : 줄긋기 사용 안함.
-underline : 텍스트 아래에 줄긋기
-overline : 텍스트 윗에 줄긋기
-line-through  : 가운데 줄긋기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>text-decoration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1482,24 +1367,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bold
-bolder
-normal
-수치값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>글자의 굵기(두께) 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font-weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal
-italic
-oblique</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1558,33 +1426,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="나눔고딕코딩"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">list-style-type:none; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="나눔고딕코딩"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>/* 없음 */
-list-style-type:disc; /* 꽉찬원. 기본값 */
-list-style-type:square; /* 사각형 */
-list-style-type:circle; /* 빈원 */</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>input[type="text"] input 태그중에 type 속성의 값이 text인 태그를 찾으시오</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1601,25 +1442,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>border-radius: 10px 0 0 10px;
-border-top-left-radius: 10px;
-border-top-right-radius: 0;
-border-bottom-right-radius: 0;
-border-bottom-left-radius: 10px;
-border-radius: 10px 0; &lt;-- 10px 0 10px 0;
-border-radius: 5px; &lt;-- 5px 5px 5px 5px;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공식을 이용한 찾기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>:nth-child(2n)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border:1px dotted #ff0000;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2174,6 +2001,193 @@
   </si>
   <si>
     <t>width="임의"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">컨텐츠height </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a:hover 모든곳에 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a:active (a태그에서만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a:visited (a태그에서만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a:link  (a태그에서만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a:focused  (a태그에서만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list-style:none;
+list-style:disc inside ;
+list-style:square ouside;
+list-style:circle;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:first-child</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-radius: 10px 0 0 10px;
+border-top-left-radius: 10px;
+border-top-right-radius: 0;
+border-bottom-right-radius: 0;
+border-bottom-left-radius: 10px;
+border-radius: 10px 0; &lt;-- 10px 0 10px 0;
+border-radius: 5px; &lt;-- 5px 5px 5px 5px;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:last-child</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box-sizing: border-box;
+box-sizing: content-box; &lt;--디폴트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>:nth-child(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕코딩"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>even</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕코딩"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택자:hover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border:1px dotted #ff0000;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔고딕코딩"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">list-style-type:none; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔고딕코딩"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>/* 없음 */
+list-style-type:disc; /* 꽉찬원. 기본값 */
+list-style-type:square; /* 사각형 */
+list-style-type:circle; /* 빈원 */</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>:nth-child(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕코딩"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>odd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕코딩"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font-weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font weight:bold;
+font weight:bolder;
+font weight:normal;
+font weight:수치값;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font style:normal;
+font style;italic;
+font style;oblique;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-decoration:none; 줄긋기 사용 안함.
+text-decoration:underline 텍스트 아래에 줄긋기
+text-decoration: overline 텍스트 윗에 줄긋기
+text-decoration: line-through 가운데 줄긋기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line-height: 4em;
+line-height: 15pt;
+line-height: 15px;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-bottom:1px dotted #0000ff;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-left:1px dotted #00ff00;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-top:1px dotted #000000;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-right:1px dotted #ff0000;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2371,7 +2385,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2423,6 +2437,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2579,7 +2611,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2856,6 +2888,21 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2883,61 +2930,55 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2949,29 +2990,44 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="176" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3736,110 +3792,110 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>89</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="41"/>
       <c r="C8" s="42"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="97" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="98"/>
+      <c r="B11" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="93"/>
-      <c r="B11" s="14" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="99"/>
+      <c r="B12" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="66">
+      <c r="A13" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="94"/>
-      <c r="B12" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="66">
-      <c r="A13" s="95" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="C13" s="38" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="66">
+      <c r="A14" s="99"/>
+      <c r="B14" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="38" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="66">
-      <c r="A14" s="94"/>
-      <c r="B14" s="14" t="s">
-        <v>80</v>
-      </c>
       <c r="C14" s="38" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="99">
@@ -3847,21 +3903,21 @@
         <v>1</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="33">
@@ -3869,30 +3925,30 @@
         <v>2</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="49.5">
+      <c r="A18" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="33">
+      <c r="A19" s="99"/>
+      <c r="B19" s="38" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="49.5">
-      <c r="A18" s="95" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="46" t="s">
+      <c r="C19" s="38" t="s">
         <v>110</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="33">
-      <c r="A19" s="94"/>
-      <c r="B19" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="47.25" customHeight="1">
@@ -3900,10 +3956,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="95" t="s">
-        <v>437</v>
+        <v>84</v>
+      </c>
+      <c r="C20" s="100" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="47.25" customHeight="1">
@@ -3911,85 +3967,85 @@
         <v>4</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="94"/>
+        <v>85</v>
+      </c>
+      <c r="C21" s="99"/>
       <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" ht="33">
-      <c r="A22" s="92" t="s">
+      <c r="A22" s="97" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="33">
+      <c r="A23" s="99"/>
+      <c r="B23" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C23" s="38" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="33">
-      <c r="A23" s="94"/>
-      <c r="B23" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="38" t="s">
+    <row r="24" spans="1:7">
+      <c r="A24" s="100" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="95" t="s">
-        <v>121</v>
-      </c>
       <c r="B24" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="98"/>
+      <c r="B25" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C25" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="98"/>
+      <c r="B26" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="98"/>
+      <c r="B27" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="98"/>
+      <c r="B28" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="93"/>
-      <c r="B25" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="93"/>
-      <c r="B26" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="93"/>
-      <c r="B27" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="93"/>
-      <c r="B28" s="14" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" s="99"/>
+      <c r="B29" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="94"/>
-      <c r="B29" s="14" t="s">
-        <v>98</v>
-      </c>
       <c r="C29" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4011,7 +4067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -4028,17 +4084,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="26.25">
-      <c r="A2" s="100" t="s">
-        <v>439</v>
-      </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
+      <c r="A2" s="105" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="89"/>
@@ -4051,98 +4107,98 @@
       <c r="H3" s="89"/>
     </row>
     <row r="4" spans="1:12" ht="20.25">
-      <c r="A4" s="99" t="s">
-        <v>453</v>
-      </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
+      <c r="A4" s="104" t="s">
+        <v>429</v>
+      </c>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
     </row>
     <row r="5" spans="1:12" ht="20.25">
       <c r="A5" s="91" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="B5" s="91" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="C5" s="91" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="D5" s="91" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="E5" s="91" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="F5" s="91" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="G5" s="91" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="H5" s="91" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="I5" s="91" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="J5" s="91" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="K5" s="91"/>
       <c r="L5" s="91"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="14" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="14" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="B7" s="90" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="90" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
@@ -4151,11 +4207,11 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="14" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -4169,11 +4225,11 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="14" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -4187,11 +4243,11 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="14" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -4199,7 +4255,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
@@ -4207,11 +4263,11 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="14" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -4224,82 +4280,82 @@
       <c r="L11" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="20.25">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="101" t="s">
+        <v>428</v>
+      </c>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="103"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="93" t="s">
+        <v>443</v>
+      </c>
+      <c r="B46" s="93" t="s">
+        <v>446</v>
+      </c>
+      <c r="C46" s="93" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="94" t="s">
+        <v>444</v>
+      </c>
+      <c r="B47" s="94" t="s">
+        <v>447</v>
+      </c>
+      <c r="C47" s="95" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="92" t="s">
+        <v>445</v>
+      </c>
+      <c r="B48" s="92" t="s">
+        <v>448</v>
+      </c>
+      <c r="C48" s="96" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="92"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="96" t="s">
         <v>452</v>
       </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="98"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="127" t="s">
-        <v>467</v>
-      </c>
-      <c r="B46" s="127" t="s">
-        <v>470</v>
-      </c>
-      <c r="C46" s="127" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="128" t="s">
-        <v>468</v>
-      </c>
-      <c r="B47" s="128" t="s">
-        <v>471</v>
-      </c>
-      <c r="C47" s="129" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="126" t="s">
-        <v>469</v>
-      </c>
-      <c r="B48" s="126" t="s">
-        <v>472</v>
-      </c>
-      <c r="C48" s="130" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="126"/>
-      <c r="B49" s="126"/>
-      <c r="C49" s="130" t="s">
-        <v>476</v>
-      </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="126"/>
-      <c r="B50" s="126"/>
-      <c r="C50" s="126" t="s">
-        <v>477</v>
+      <c r="A50" s="92"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="92" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="126"/>
-      <c r="B51" s="126"/>
-      <c r="C51" s="126" t="s">
-        <v>478</v>
+      <c r="A51" s="92"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="92" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="126"/>
-      <c r="B52" s="126" t="s">
-        <v>473</v>
-      </c>
-      <c r="C52" s="130" t="s">
-        <v>479</v>
+      <c r="A52" s="92"/>
+      <c r="B52" s="92" t="s">
+        <v>449</v>
+      </c>
+      <c r="C52" s="96" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="C53" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -4319,8 +4375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="86.625" defaultRowHeight="16.5"/>
@@ -4334,122 +4390,122 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" s="52" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="51" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="73" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B4" s="73" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="73" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="B5" s="73" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="73" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="B6" s="73" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
-      <c r="A7" s="107" t="s">
-        <v>401</v>
-      </c>
-      <c r="B7" s="107" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" s="101" t="s">
-        <v>202</v>
+      <c r="A7" s="106" t="s">
+        <v>377</v>
+      </c>
+      <c r="B7" s="106" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="107" t="s">
+        <v>192</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="101"/>
+      <c r="A8" s="106"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="107"/>
       <c r="D8" s="51" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="81" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B9" s="81" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="81" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B10" s="81" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C10" s="82" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4465,127 +4521,127 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="52" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="104" t="s">
-        <v>200</v>
+      <c r="A14" s="108" t="s">
+        <v>190</v>
       </c>
       <c r="B14" s="78" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="105"/>
+      <c r="A15" s="109"/>
       <c r="B15" s="78" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="105"/>
+      <c r="A16" s="109"/>
       <c r="B16" s="51" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="105"/>
+      <c r="A17" s="109"/>
       <c r="B17" s="51" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="27">
-      <c r="A18" s="105"/>
-      <c r="B18" s="101" t="s">
-        <v>189</v>
+      <c r="A18" s="109"/>
+      <c r="B18" s="107" t="s">
+        <v>179</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" s="101" t="s">
-        <v>187</v>
+        <v>178</v>
+      </c>
+      <c r="D18" s="107" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="105"/>
-      <c r="B19" s="101"/>
+      <c r="A19" s="109"/>
+      <c r="B19" s="107"/>
       <c r="C19" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="D19" s="101"/>
+        <v>176</v>
+      </c>
+      <c r="D19" s="107"/>
     </row>
     <row r="20" spans="1:4" ht="27">
-      <c r="A20" s="105"/>
-      <c r="B20" s="101" t="s">
-        <v>185</v>
+      <c r="A20" s="109"/>
+      <c r="B20" s="107" t="s">
+        <v>175</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="D20" s="101" t="s">
-        <v>183</v>
+        <v>174</v>
+      </c>
+      <c r="D20" s="107" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="105"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="109"/>
+      <c r="B21" s="107"/>
       <c r="C21" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="D21" s="101"/>
+        <v>172</v>
+      </c>
+      <c r="D21" s="107"/>
     </row>
     <row r="22" spans="1:4" ht="27">
-      <c r="A22" s="105"/>
-      <c r="B22" s="101" t="s">
-        <v>181</v>
+      <c r="A22" s="109"/>
+      <c r="B22" s="107" t="s">
+        <v>171</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="D22" s="101" t="s">
-        <v>179</v>
+        <v>170</v>
+      </c>
+      <c r="D22" s="107" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="106"/>
-      <c r="B23" s="101"/>
+      <c r="A23" s="110"/>
+      <c r="B23" s="107"/>
       <c r="C23" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="D23" s="101"/>
+        <v>168</v>
+      </c>
+      <c r="D23" s="107"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="60"/>
@@ -4601,312 +4657,317 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="52" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D26" s="52" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="73" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B27" s="73" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="73" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B28" s="73" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="51" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C29" s="53"/>
       <c r="D29" s="53"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="51" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C30" s="53"/>
       <c r="D30" s="53"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="52" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C33" s="52" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D33" s="52" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="101" t="s">
-        <v>164</v>
-      </c>
-      <c r="B34" s="101" t="s">
-        <v>163</v>
-      </c>
-      <c r="C34" s="102" t="s">
-        <v>162</v>
-      </c>
-      <c r="D34" s="103"/>
+      <c r="A34" s="107" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" s="107" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" s="111" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" s="112"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="101"/>
-      <c r="B35" s="101"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="103"/>
+      <c r="A35" s="107"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="112"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="101"/>
+      <c r="A36" s="107"/>
       <c r="B36" s="51" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C36" s="57" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D36" s="53"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="101"/>
+      <c r="A37" s="107"/>
       <c r="B37" s="51" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C37" s="57" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D37" s="53"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="101"/>
+      <c r="A38" s="107"/>
       <c r="B38" s="57" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C38" s="56" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D38" s="53"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="101"/>
+      <c r="A39" s="107"/>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
       <c r="D39" s="53"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="101"/>
+      <c r="A40" s="107"/>
       <c r="B40" s="54" t="s">
-        <v>155</v>
+        <v>466</v>
       </c>
       <c r="C40" s="77" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="D40" s="53"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="101"/>
+      <c r="A41" s="107"/>
       <c r="B41" s="54" t="s">
-        <v>154</v>
+        <v>468</v>
       </c>
       <c r="C41" s="77" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="D41" s="53"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="101"/>
+      <c r="A42" s="107"/>
       <c r="B42" s="51" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="C42" s="77" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="D42" s="53"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="101"/>
+      <c r="A43" s="107"/>
       <c r="B43" s="51" t="s">
-        <v>153</v>
+        <v>474</v>
       </c>
       <c r="C43" s="51" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D43" s="53"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="101"/>
+      <c r="A44" s="107"/>
       <c r="B44" s="51" t="s">
-        <v>151</v>
+        <v>470</v>
       </c>
       <c r="C44" s="51" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D44" s="53"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="101"/>
+      <c r="A45" s="107"/>
       <c r="B45" s="53"/>
       <c r="C45" s="53"/>
       <c r="D45" s="53"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="101"/>
-      <c r="B46" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="C46" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="D46" s="51" t="s">
-        <v>400</v>
+      <c r="A46" s="107"/>
+      <c r="B46" s="129" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="130" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="130" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="101"/>
+      <c r="A47" s="107"/>
       <c r="B47" s="86" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C47" s="85" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D47" s="85" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="101"/>
+      <c r="A48" s="107"/>
       <c r="B48" s="54" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C48" s="51" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D48" s="53"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="101"/>
+      <c r="A49" s="107"/>
       <c r="B49" s="54" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C49" s="51" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D49" s="53"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="52" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B52" s="52" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D52" s="52" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="104" t="s">
-        <v>137</v>
-      </c>
-      <c r="B53" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="C53" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="D53" s="51" t="s">
-        <v>134</v>
+      <c r="A53" s="108" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="130" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="130" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="130" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="105"/>
-      <c r="B54" s="85" t="s">
-        <v>133</v>
-      </c>
-      <c r="C54" s="85" t="s">
-        <v>417</v>
-      </c>
-      <c r="D54" s="85" t="s">
-        <v>132</v>
+      <c r="A54" s="109"/>
+      <c r="B54" s="131" t="s">
+        <v>471</v>
+      </c>
+      <c r="C54" s="131" t="s">
+        <v>393</v>
+      </c>
+      <c r="D54" s="131" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="105"/>
-      <c r="B55" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="C55" s="51" t="s">
-        <v>418</v>
-      </c>
-      <c r="D55" s="51" t="s">
-        <v>14</v>
+      <c r="A55" s="109"/>
+      <c r="B55" s="130" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" s="130" t="s">
+        <v>394</v>
+      </c>
+      <c r="D55" s="130" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="105"/>
-      <c r="B56" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="C56" s="51" t="s">
-        <v>419</v>
-      </c>
-      <c r="D56" s="51" t="s">
-        <v>129</v>
+      <c r="A56" s="109"/>
+      <c r="B56" s="130" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="130" t="s">
+        <v>395</v>
+      </c>
+      <c r="D56" s="130" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="106"/>
+      <c r="A57" s="110"/>
       <c r="B57" s="51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C57" s="51" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D57" s="51" t="s">
-        <v>126</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A34:A49"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -4917,11 +4978,6 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A34:A49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4933,8 +4989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView topLeftCell="C76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="D29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4956,325 +5012,325 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="36" customHeight="1">
-      <c r="A2" s="108" t="s">
-        <v>379</v>
-      </c>
-      <c r="B2" s="111" t="s">
-        <v>378</v>
+      <c r="A2" s="121" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2" s="116" t="s">
+        <v>357</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="D2" s="71" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="81" customHeight="1">
-      <c r="A3" s="109"/>
-      <c r="B3" s="111"/>
+      <c r="A3" s="118"/>
+      <c r="B3" s="116"/>
       <c r="C3" s="18" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="E3" s="63" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="42.75">
-      <c r="A4" s="109"/>
-      <c r="B4" s="111"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="5" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>369</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="57">
-      <c r="A5" s="109"/>
-      <c r="B5" s="111"/>
+      <c r="A5" s="118"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="5" t="s">
-        <v>368</v>
+        <v>475</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>366</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="109"/>
-      <c r="B6" s="111"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="116"/>
       <c r="C6" s="5" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="42.75" customHeight="1">
-      <c r="A7" s="109"/>
-      <c r="B7" s="111"/>
+      <c r="A7" s="118"/>
+      <c r="B7" s="116"/>
       <c r="C7" s="72" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="E7" s="88" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="86.25" customHeight="1">
-      <c r="A8" s="109"/>
-      <c r="B8" s="111"/>
+      <c r="A8" s="118"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="83" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="84" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="E8" s="87" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="42.75">
-      <c r="A9" s="109"/>
-      <c r="B9" s="111" t="s">
-        <v>363</v>
+      <c r="A9" s="118"/>
+      <c r="B9" s="116" t="s">
+        <v>345</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="57">
-      <c r="A10" s="109"/>
-      <c r="B10" s="111"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="116"/>
       <c r="C10" s="80" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>360</v>
+        <v>478</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="42.75">
-      <c r="A11" s="109"/>
-      <c r="B11" s="111"/>
+      <c r="A11" s="118"/>
+      <c r="B11" s="116"/>
       <c r="C11" s="19" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>358</v>
+        <v>479</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="109"/>
-      <c r="B12" s="111"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="4" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="E12" s="4"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="109"/>
-      <c r="B13" s="111"/>
+      <c r="A13" s="118"/>
+      <c r="B13" s="116"/>
       <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="109"/>
-      <c r="B14" s="111"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="116"/>
       <c r="C14" s="19" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="28.5">
-      <c r="A15" s="109"/>
-      <c r="B15" s="111"/>
+      <c r="A15" s="118"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="69" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="109"/>
-      <c r="B16" s="111"/>
+      <c r="A16" s="118"/>
+      <c r="B16" s="116"/>
       <c r="C16" s="5" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="E16" s="5"/>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="109"/>
-      <c r="B17" s="111"/>
+      <c r="A17" s="118"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="4" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="D17" s="79" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="109"/>
-      <c r="B18" s="111"/>
+      <c r="A18" s="118"/>
+      <c r="B18" s="116"/>
       <c r="C18" s="5" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="109"/>
-      <c r="B19" s="111"/>
+      <c r="A19" s="118"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="7" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="109"/>
-      <c r="B20" s="111"/>
+      <c r="A20" s="118"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="7" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="28.5">
-      <c r="A21" s="109"/>
-      <c r="B21" s="111"/>
+      <c r="A21" s="118"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="57">
-      <c r="A22" s="109"/>
-      <c r="B22" s="111" t="s">
-        <v>340</v>
+      <c r="A22" s="118"/>
+      <c r="B22" s="116" t="s">
+        <v>324</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>383</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="109"/>
-      <c r="B23" s="111"/>
+      <c r="A23" s="118"/>
+      <c r="B23" s="116"/>
       <c r="C23" s="5" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="28.5">
-      <c r="A24" s="109"/>
-      <c r="B24" s="111"/>
+      <c r="A24" s="118"/>
+      <c r="B24" s="116"/>
       <c r="C24" s="5" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="57">
-      <c r="A25" s="110"/>
-      <c r="B25" s="111"/>
+      <c r="A25" s="119"/>
+      <c r="B25" s="116"/>
       <c r="C25" s="18" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="E25" s="63" t="s">
-        <v>329</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5287,380 +5343,380 @@
     <row r="27" spans="1:5" ht="209.25" customHeight="1">
       <c r="A27" s="47"/>
       <c r="B27" s="47" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="26"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="71.25">
-      <c r="A28" s="112" t="s">
-        <v>327</v>
-      </c>
-      <c r="B28" s="112" t="s">
-        <v>326</v>
+      <c r="A28" s="120" t="s">
+        <v>312</v>
+      </c>
+      <c r="B28" s="120" t="s">
+        <v>311</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="114">
-      <c r="A29" s="111"/>
-      <c r="B29" s="111"/>
+      <c r="A29" s="116"/>
+      <c r="B29" s="116"/>
       <c r="C29" s="5" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="85.5">
-      <c r="A30" s="111"/>
-      <c r="B30" s="111"/>
+      <c r="A30" s="116"/>
+      <c r="B30" s="116"/>
       <c r="C30" s="5" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="111"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="116" t="s">
-        <v>319</v>
-      </c>
-      <c r="D31" s="117" t="s">
-        <v>318</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>391</v>
+      <c r="A31" s="116"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="135" t="s">
+        <v>304</v>
+      </c>
+      <c r="D31" s="136" t="s">
+        <v>303</v>
+      </c>
+      <c r="E31" s="137" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="42.75">
-      <c r="A32" s="111"/>
-      <c r="B32" s="111"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="63" t="s">
-        <v>392</v>
+      <c r="A32" s="116"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="138" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="111"/>
-      <c r="B33" s="111"/>
+      <c r="A33" s="116"/>
+      <c r="B33" s="116"/>
       <c r="C33" s="5" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="5" t="s">
-        <v>316</v>
+        <v>482</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="111"/>
-      <c r="B34" s="111"/>
+      <c r="A34" s="116"/>
+      <c r="B34" s="116"/>
       <c r="C34" s="5" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="D34" s="26"/>
       <c r="E34" s="5" t="s">
-        <v>314</v>
+        <v>483</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="111"/>
-      <c r="B35" s="111"/>
+      <c r="A35" s="116"/>
+      <c r="B35" s="116"/>
       <c r="C35" s="5" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="5" t="s">
-        <v>312</v>
+        <v>480</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="111"/>
-      <c r="B36" s="111"/>
+      <c r="A36" s="116"/>
+      <c r="B36" s="116"/>
       <c r="C36" s="5" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="5" t="s">
-        <v>310</v>
+        <v>481</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="114">
-      <c r="A37" s="111"/>
-      <c r="B37" s="111"/>
+      <c r="A37" s="116"/>
+      <c r="B37" s="116"/>
       <c r="C37" s="18" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D37" s="64" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E37" s="63" t="s">
-        <v>388</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="111"/>
-      <c r="B38" s="111"/>
+      <c r="A38" s="116"/>
+      <c r="B38" s="116"/>
       <c r="C38" s="5" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="5" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="111"/>
-      <c r="B39" s="111"/>
+      <c r="A39" s="116"/>
+      <c r="B39" s="116"/>
       <c r="C39" s="5" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" ht="28.5">
-      <c r="A40" s="111"/>
-      <c r="B40" s="111"/>
-      <c r="C40" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="D40" s="64" t="s">
-        <v>303</v>
-      </c>
-      <c r="E40" s="63" t="s">
-        <v>302</v>
+      <c r="A40" s="116"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="132" t="s">
+        <v>293</v>
+      </c>
+      <c r="D40" s="133" t="s">
+        <v>292</v>
+      </c>
+      <c r="E40" s="134" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="42.75">
-      <c r="A41" s="111"/>
-      <c r="B41" s="111"/>
+      <c r="A41" s="116"/>
+      <c r="B41" s="116"/>
       <c r="C41" s="18" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D41" s="64" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E41" s="63" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="111"/>
-      <c r="B42" s="111"/>
+      <c r="A42" s="116"/>
+      <c r="B42" s="116"/>
       <c r="C42" s="5" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="111"/>
-      <c r="B43" s="112" t="s">
-        <v>296</v>
+      <c r="A43" s="116"/>
+      <c r="B43" s="120" t="s">
+        <v>286</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D43" s="26"/>
       <c r="E43" s="5" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="111"/>
-      <c r="B44" s="111"/>
+      <c r="A44" s="116"/>
+      <c r="B44" s="116"/>
       <c r="C44" s="5" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="5" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="111"/>
-      <c r="B45" s="111"/>
+      <c r="A45" s="116"/>
+      <c r="B45" s="116"/>
       <c r="C45" s="5" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D45" s="26"/>
       <c r="E45" s="5" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="111"/>
-      <c r="B46" s="111"/>
+      <c r="A46" s="116"/>
+      <c r="B46" s="116"/>
       <c r="C46" s="5" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D46" s="26"/>
       <c r="E46" s="5" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="42.75">
-      <c r="A47" s="111"/>
-      <c r="B47" s="111"/>
+      <c r="A47" s="116"/>
+      <c r="B47" s="116"/>
       <c r="C47" s="16" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D47" s="37"/>
       <c r="E47" s="17" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="111"/>
-      <c r="B48" s="112" t="s">
-        <v>285</v>
+      <c r="A48" s="116"/>
+      <c r="B48" s="120" t="s">
+        <v>275</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="26"/>
       <c r="E48" s="5" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="111"/>
-      <c r="B49" s="111"/>
+      <c r="A49" s="116"/>
+      <c r="B49" s="116"/>
       <c r="C49" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="26"/>
       <c r="E49" s="5" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="111"/>
-      <c r="B50" s="111"/>
+      <c r="A50" s="116"/>
+      <c r="B50" s="116"/>
       <c r="C50" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="26"/>
       <c r="E50" s="5" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="111"/>
-      <c r="B51" s="111"/>
+      <c r="A51" s="116"/>
+      <c r="B51" s="116"/>
       <c r="C51" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="26"/>
       <c r="E51" s="5" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="42.75">
-      <c r="A52" s="111"/>
-      <c r="B52" s="111"/>
+      <c r="A52" s="116"/>
+      <c r="B52" s="116"/>
       <c r="C52" s="16" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D52" s="37"/>
       <c r="E52" s="17" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="28.5">
-      <c r="A53" s="111"/>
-      <c r="B53" s="111" t="s">
-        <v>278</v>
+      <c r="A53" s="116"/>
+      <c r="B53" s="116" t="s">
+        <v>268</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="111"/>
-      <c r="B54" s="111"/>
+      <c r="A54" s="116"/>
+      <c r="B54" s="116"/>
       <c r="C54" s="16" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="111"/>
-      <c r="B55" s="111"/>
+      <c r="A55" s="116"/>
+      <c r="B55" s="116"/>
       <c r="C55" s="5" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" ht="28.5">
-      <c r="A56" s="111"/>
-      <c r="B56" s="111" t="s">
-        <v>270</v>
+      <c r="A56" s="116"/>
+      <c r="B56" s="116" t="s">
+        <v>459</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="111"/>
-      <c r="B57" s="111"/>
+      <c r="A57" s="116"/>
+      <c r="B57" s="116"/>
       <c r="C57" s="16" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="111"/>
-      <c r="B58" s="111"/>
+      <c r="A58" s="116"/>
+      <c r="B58" s="116"/>
       <c r="C58" s="5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="E58" s="5"/>
     </row>
@@ -5672,150 +5728,150 @@
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="99.75">
-      <c r="A60" s="108" t="s">
-        <v>262</v>
-      </c>
-      <c r="B60" s="121" t="s">
-        <v>261</v>
+      <c r="A60" s="121" t="s">
+        <v>252</v>
+      </c>
+      <c r="B60" s="124" t="s">
+        <v>251</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="119"/>
-      <c r="B61" s="122"/>
+      <c r="A61" s="122"/>
+      <c r="B61" s="125"/>
       <c r="C61" s="18" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="E61" s="20"/>
     </row>
     <row r="62" spans="1:5" ht="57">
-      <c r="A62" s="109"/>
-      <c r="B62" s="120" t="s">
-        <v>258</v>
+      <c r="A62" s="118"/>
+      <c r="B62" s="123" t="s">
+        <v>248</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="42.75">
-      <c r="A63" s="109"/>
-      <c r="B63" s="120"/>
+      <c r="A63" s="118"/>
+      <c r="B63" s="123"/>
       <c r="C63" s="5" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="42.75">
-      <c r="A64" s="109"/>
-      <c r="B64" s="120"/>
+      <c r="A64" s="118"/>
+      <c r="B64" s="123"/>
       <c r="C64" s="32" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="42.75">
-      <c r="A65" s="109"/>
-      <c r="B65" s="120"/>
+      <c r="A65" s="118"/>
+      <c r="B65" s="123"/>
       <c r="C65" s="16" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D65" s="37" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="57">
-      <c r="A66" s="109"/>
-      <c r="B66" s="120"/>
+      <c r="A66" s="118"/>
+      <c r="B66" s="123"/>
       <c r="C66" s="32" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="57">
-      <c r="A67" s="109"/>
-      <c r="B67" s="120"/>
+      <c r="A67" s="118"/>
+      <c r="B67" s="123"/>
       <c r="C67" s="5" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="42.75">
-      <c r="A68" s="109"/>
-      <c r="B68" s="120"/>
+      <c r="A68" s="118"/>
+      <c r="B68" s="123"/>
       <c r="C68" s="5" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="28.5">
-      <c r="A69" s="109"/>
-      <c r="B69" s="120"/>
+      <c r="A69" s="118"/>
+      <c r="B69" s="123"/>
       <c r="C69" s="32" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="71.25">
-      <c r="A70" s="110"/>
-      <c r="B70" s="120"/>
+      <c r="A70" s="119"/>
+      <c r="B70" s="123"/>
       <c r="C70" s="31" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E70" s="36" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -5834,132 +5890,139 @@
     </row>
     <row r="73" spans="1:5" ht="57">
       <c r="A73" s="113" t="s">
-        <v>237</v>
-      </c>
-      <c r="B73" s="118" t="s">
-        <v>236</v>
+        <v>227</v>
+      </c>
+      <c r="B73" s="117" t="s">
+        <v>226</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E73" s="34" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="114"/>
-      <c r="B74" s="109"/>
+      <c r="B74" s="118"/>
       <c r="C74" s="32" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D74" s="33" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E74" s="32"/>
     </row>
     <row r="75" spans="1:5" ht="42.75">
       <c r="A75" s="114"/>
-      <c r="B75" s="109"/>
+      <c r="B75" s="118"/>
       <c r="C75" s="32" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D75" s="33"/>
       <c r="E75" s="34" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="85.5">
       <c r="A76" s="114"/>
-      <c r="B76" s="109"/>
+      <c r="B76" s="118"/>
       <c r="C76" s="32" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D76" s="33" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E76" s="34" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="42.75">
       <c r="A77" s="114"/>
-      <c r="B77" s="109"/>
+      <c r="B77" s="118"/>
       <c r="C77" s="4" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="114"/>
-      <c r="B78" s="109"/>
+      <c r="B78" s="118"/>
       <c r="C78" s="4" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E78" s="5"/>
     </row>
     <row r="79" spans="1:5" ht="57">
       <c r="A79" s="114"/>
-      <c r="B79" s="109"/>
+      <c r="B79" s="118"/>
       <c r="C79" s="31" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D79" s="33" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="E79" s="34" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="42.75">
       <c r="A80" s="114"/>
-      <c r="B80" s="109"/>
+      <c r="B80" s="118"/>
       <c r="C80" s="32" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="D80" s="33" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="E80" s="34" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="114"/>
-      <c r="B81" s="109"/>
+      <c r="B81" s="118"/>
       <c r="C81" s="31" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D81" s="33" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E81" s="32"/>
     </row>
     <row r="82" spans="1:5" ht="57">
       <c r="A82" s="115"/>
-      <c r="B82" s="110"/>
+      <c r="B82" s="119"/>
       <c r="C82" s="4" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B28:B42"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="A28:A58"/>
     <mergeCell ref="A73:A82"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
@@ -5970,13 +6033,6 @@
     <mergeCell ref="A60:A70"/>
     <mergeCell ref="B62:B70"/>
     <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B28:B42"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B9:B21"/>
-    <mergeCell ref="A28:A58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6002,356 +6058,356 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25">
       <c r="A1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="21" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="17.25">
+      <c r="A2" s="126" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.25">
-      <c r="A2" s="125" t="s">
+      <c r="B2" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="C2" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="48" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="17.25">
+      <c r="A3" s="126"/>
+      <c r="B3" s="48" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="17.25">
-      <c r="A3" s="125"/>
-      <c r="B3" s="48" t="s">
+      <c r="C3" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="48" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="36.75" customHeight="1">
+      <c r="A4" s="126" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="36.75" customHeight="1">
-      <c r="A4" s="125" t="s">
+      <c r="B4" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="34.5">
+      <c r="A5" s="126"/>
+      <c r="B5" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="34.5">
+      <c r="A6" s="126"/>
+      <c r="B6" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="34.5">
+      <c r="A7" s="126"/>
+      <c r="B7" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="34.5">
-      <c r="A5" s="125"/>
-      <c r="B5" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="34.5">
-      <c r="A6" s="125"/>
-      <c r="B6" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="48" t="s">
+      <c r="C7" s="48" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="34.5">
-      <c r="A7" s="125"/>
-      <c r="B7" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="48" t="s">
+    <row r="8" spans="1:3" ht="37.5" customHeight="1">
+      <c r="A8" s="126" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A8" s="125" t="s">
+      <c r="B8" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17.25">
+      <c r="A9" s="126"/>
+      <c r="B9" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="34.5">
+      <c r="A10" s="126"/>
+      <c r="B10" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="17.25">
-      <c r="A9" s="125"/>
-      <c r="B9" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="48" t="s">
+      <c r="C10" s="48" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34.5">
-      <c r="A10" s="125"/>
-      <c r="B10" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="48" t="s">
+    <row r="11" spans="1:3" ht="17.25" hidden="1" customHeight="1">
+      <c r="A11" s="127" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.25" hidden="1" customHeight="1">
-      <c r="A11" s="123" t="s">
+      <c r="B11" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="48" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="17.25" hidden="1">
+      <c r="A12" s="128"/>
+      <c r="B12" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="128"/>
+    </row>
+    <row r="13" spans="1:3" ht="17.25">
+      <c r="A13" s="126" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17.25">
+      <c r="A14" s="126"/>
+      <c r="B14" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17.25">
+      <c r="A15" s="126"/>
+      <c r="B15" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="34.5">
+      <c r="A16" s="126"/>
+      <c r="B16" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="34.5">
+      <c r="A17" s="126"/>
+      <c r="B17" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.25">
+      <c r="A18" s="126" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.25">
+      <c r="A19" s="126"/>
+      <c r="B19" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.25">
+      <c r="A20" s="126"/>
+      <c r="B20" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.25">
+      <c r="A21" s="126"/>
+      <c r="B21" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="51.75">
+      <c r="A22" s="126"/>
+      <c r="B22" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="34.5">
+      <c r="A23" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="123" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17.25" hidden="1">
-      <c r="A12" s="124"/>
-      <c r="B12" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="124"/>
-    </row>
-    <row r="13" spans="1:3" ht="17.25">
-      <c r="A13" s="125" t="s">
+      <c r="C23" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17.25">
+      <c r="A24" s="126"/>
+      <c r="B24" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="22"/>
+    </row>
+    <row r="25" spans="1:3" ht="17.25">
+      <c r="A25" s="126"/>
+      <c r="B25" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="22"/>
+    </row>
+    <row r="26" spans="1:3" ht="17.25">
+      <c r="A26" s="126"/>
+      <c r="B26" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="22"/>
+    </row>
+    <row r="27" spans="1:3" ht="17.25">
+      <c r="A27" s="126"/>
+      <c r="B27" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="22"/>
+    </row>
+    <row r="28" spans="1:3" ht="17.25">
+      <c r="A28" s="126"/>
+      <c r="B28" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="22"/>
+    </row>
+    <row r="29" spans="1:3" ht="17.25">
+      <c r="A29" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="22"/>
+    </row>
+    <row r="30" spans="1:3" ht="17.25">
+      <c r="A30" s="126"/>
+      <c r="B30" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="22"/>
+    </row>
+    <row r="31" spans="1:3" ht="17.25">
+      <c r="A31" s="126"/>
+      <c r="B31" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="22"/>
+    </row>
+    <row r="32" spans="1:3" ht="17.25">
+      <c r="A32" s="126"/>
+      <c r="B32" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="22"/>
+    </row>
+    <row r="33" spans="1:3" ht="17.25">
+      <c r="A33" s="126"/>
+      <c r="B33" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="22"/>
+    </row>
+    <row r="34" spans="1:3" ht="17.25">
+      <c r="A34" s="126"/>
+      <c r="B34" s="48" t="s">
         <v>42</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="17.25">
-      <c r="A14" s="125"/>
-      <c r="B14" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="17.25">
-      <c r="A15" s="125"/>
-      <c r="B15" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="34.5">
-      <c r="A16" s="125"/>
-      <c r="B16" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="34.5">
-      <c r="A17" s="125"/>
-      <c r="B17" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17.25">
-      <c r="A18" s="125" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17.25">
-      <c r="A19" s="125"/>
-      <c r="B19" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17.25">
-      <c r="A20" s="125"/>
-      <c r="B20" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="17.25">
-      <c r="A21" s="125"/>
-      <c r="B21" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="51.75">
-      <c r="A22" s="125"/>
-      <c r="B22" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="34.5">
-      <c r="A23" s="125" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="17.25">
-      <c r="A24" s="125"/>
-      <c r="B24" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="22"/>
-    </row>
-    <row r="25" spans="1:3" ht="17.25">
-      <c r="A25" s="125"/>
-      <c r="B25" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="22"/>
-    </row>
-    <row r="26" spans="1:3" ht="17.25">
-      <c r="A26" s="125"/>
-      <c r="B26" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="22"/>
-    </row>
-    <row r="27" spans="1:3" ht="17.25">
-      <c r="A27" s="125"/>
-      <c r="B27" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="22"/>
-    </row>
-    <row r="28" spans="1:3" ht="17.25">
-      <c r="A28" s="125"/>
-      <c r="B28" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="22"/>
-    </row>
-    <row r="29" spans="1:3" ht="17.25">
-      <c r="A29" s="125" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="22"/>
-    </row>
-    <row r="30" spans="1:3" ht="17.25">
-      <c r="A30" s="125"/>
-      <c r="B30" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="22"/>
-    </row>
-    <row r="31" spans="1:3" ht="17.25">
-      <c r="A31" s="125"/>
-      <c r="B31" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="22"/>
-    </row>
-    <row r="32" spans="1:3" ht="17.25">
-      <c r="A32" s="125"/>
-      <c r="B32" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="22"/>
-    </row>
-    <row r="33" spans="1:3" ht="17.25">
-      <c r="A33" s="125"/>
-      <c r="B33" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="22"/>
-    </row>
-    <row r="34" spans="1:3" ht="17.25">
-      <c r="A34" s="125"/>
-      <c r="B34" s="48" t="s">
-        <v>43</v>
       </c>
       <c r="C34" s="22"/>
     </row>
     <row r="35" spans="1:3" ht="17.25">
       <c r="A35" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="34.5">
-      <c r="A36" s="125" t="s">
-        <v>19</v>
+      <c r="A36" s="126" t="s">
+        <v>18</v>
       </c>
       <c r="B36" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="34.5">
+      <c r="A37" s="126"/>
+      <c r="B37" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C37" s="48" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34.5">
-      <c r="A37" s="125"/>
-      <c r="B37" s="48" t="s">
+    <row r="38" spans="1:3" ht="34.5">
+      <c r="A38" s="126"/>
+      <c r="B38" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C38" s="48" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="34.5">
-      <c r="A38" s="125"/>
-      <c r="B38" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="48" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A28"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A29:A34"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/st00.docs/html&css정리.20190615 (1).xlsx
+++ b/st00.docs/html&css정리.20190615 (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="7515" windowHeight="5340" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="7515" windowHeight="5340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="html" sheetId="1" r:id="rId1"/>
@@ -858,10 +858,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>속성 하나로 배경 제어할 때</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>background-attachment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1047,10 +1043,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>margin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>margin-left : 20px;</t>
   </si>
   <si>
@@ -1065,17 +1057,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>margin
-바깥여백</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>padding: 10px 0 0 20px;
-padding: 10px 0;          --&gt; padding: 10px 0 10px 0;
-padding: 10px;            --&gt; padding: 10px 10px 10px 10px;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>padding</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1112,24 +1093,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>padding
-안쪽여백</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>input 태그에서 사용되는 테두리 태그</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>outline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>box-shadow: 20px -20px 5px 0 #ff0000;
-box-shadow: 20px -20px 5px 0 #ff0000 inset;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>박스에 그림자 부여</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1138,10 +1105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>박스 너비 기준 정하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>box-sizing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1162,10 +1125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>border-radius</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>border-left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1174,14 +1133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>border-right</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border-top</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>테두리 두께, 형태, 색깔을 한번에 설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1207,10 +1158,6 @@
   </si>
   <si>
     <t>테두리 두께</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border-width</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1286,11 +1233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>white-spacing: wrap;  &lt;-- 디폴트값
-white-spacing: nowrap;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">글자의 줄바꿈 처리 방법 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1347,10 +1289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>text-decoration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">text-align </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1376,12 +1314,6 @@
   </si>
   <si>
     <t>font-style</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font-size:12px;
-font-size:12pt;
-font-size:2em;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1450,17 +1382,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>border-width:1px;
-border-style:dotted;
-border-color:#ff0000;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>font-family: "맑은고딕", "Dotum", "sans-serif";</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ellipsis/clip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1482,10 +1404,6 @@
   </si>
   <si>
     <t>텍스트에 줄 표시하기/없애기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>div::before { clear:both; display:block; content:''; }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1525,39 +1443,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕코딩"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>div</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕코딩"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>::after { clear:both; display:block; content:''; }</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>background-color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>텍스트의 색 지정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>태그(엘리먼트)의 배경색 지정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1603,24 +1489,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>border-style:sloid;  실선:   ---------
-border-style:dotted; 점선:   ……………
-border-style:dashed; 긴점선: -- -- -- --
-border-top-style: solid;
-border-right-style: solid;
-border-bottom-style: solid;
-border-left-style: solid;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border-width: 5px;
-border-top-width: 5px;
-border-right-width: 5px;
-border-bottom-width: 5px;
-border-left-width: 5px;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>태그 위에 마우스를 올리는 경우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1630,10 +1498,6 @@
   </si>
   <si>
     <t>방문하지 않은 링크에 스타일 적용할 때</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>background</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2004,26 +1868,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">컨텐츠height </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a:hover 모든곳에 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a:active (a태그에서만 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a:visited (a태그에서만 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a:link  (a태그에서만 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>a:focused  (a태그에서만 가능)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2036,16 +1880,6 @@
   </si>
   <si>
     <t>:first-child</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border-radius: 10px 0 0 10px;
-border-top-left-radius: 10px;
-border-top-right-radius: 0;
-border-bottom-right-radius: 0;
-border-bottom-left-radius: 10px;
-border-radius: 10px 0; &lt;-- 10px 0 10px 0;
-border-radius: 5px; &lt;-- 5px 5px 5px 5px;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2149,6 +1983,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>font style:normal;
+font style;italic;
+font style;oblique;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-decoration:none; 줄긋기 사용 안함.
+text-decoration:underline 텍스트 아래에 줄긋기
+text-decoration: overline 텍스트 윗에 줄긋기
+text-decoration: line-through 가운데 줄긋기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-bottom:1px dotted #0000ff;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-left:1px dotted #00ff00;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-top:1px dotted #000000;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박스 너비 기준 정하기
+박스의 랜더링 브라우저에서 태그를 그리는 방식을 저장
+기본값: 안에서 밖으로 그려 나간다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>padding
+테두리의
+안쪽여백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>margin
+테두리의
+바깥여백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">컨텐츠 높이height </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그(엘리먼트)의 배경색 지정
+태그 색상 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클자 색 지정
+텍스트의 색 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성 하나로 배경 제어할 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background
+(추천하지않음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-radius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-radius: 10px 0 0 10px;
+border-top-left-radius: 10px;
+border-top-right-radius: 0;
+border-bottom-right-radius: 0;
+border-bottom-left-radius: 10px;
+border-radius: 10px 0; &lt;-- 10px 0 10px 0;
+border-radius: 5px; &lt;-- 5px 5px 5px 5px;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-width:1px;
+border-style:dotted;
+border-color:#ff0000;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>padding: 10px 0 0 20px;
+padding: 10px 0;          --&gt; padding: 10px 0 10px 0;
+padding: 10px;            --&gt; padding: 10px 10px 10px 10px;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box-shadow: 20px -20px 5px 0 #ff0000;
+box-shadow: 20px -20px 5px 0 #ff0000 inset;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-width: 5px;
+border-top-width: 5px;
+border-right-width: 5px;
+border-bottom-width: 5px;
+border-left-width: 5px;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-style:sloid;  실선:   ---------
+border-style:dotted; 점선:   ……………
+border-style:dashed; 긴점선: -- -- -- --
+border-top-style: solid;
+border-right-style: solid;
+border-bottom-style: solid;
+border-left-style: solid;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font-size:12px;
+font-size:12pt;
+font-size:2em;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>font weight:bold;
 font weight:bolder;
 font weight:normal;
@@ -2156,16 +2123,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>font style:normal;
-font style;italic;
-font style;oblique;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text-decoration:none; 줄긋기 사용 안함.
-text-decoration:underline 텍스트 아래에 줄긋기
-text-decoration: overline 텍스트 윗에 줄긋기
-text-decoration: line-through 가운데 줄긋기</t>
+    <t>border-right:1px dotted #ff0000;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>margin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕코딩"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕코딩"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>::after { clear:both; display:block; content:''; }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-top</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2175,19 +2165,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>border-bottom:1px dotted #0000ff;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border-left:1px dotted #00ff00;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border-top:1px dotted #000000;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border-right:1px dotted #ff0000;</t>
+    <t>text-decoration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a:visited (a태그에서만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a:link  (a태그에서만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a:hover 모든곳에 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a:active (a태그에서만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>white-spacing: wrap;  &lt;-- 디폴트값
+white-spacing: nowrap;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ellipsis/clip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div::before { clear:both; display:block; content:''; }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2385,7 +2392,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2455,6 +2462,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2611,7 +2624,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2903,6 +2916,27 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2930,26 +2964,41 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2960,25 +3009,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2990,43 +3024,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3477,7 +3505,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3431631" y="8396989"/>
+          <a:off x="10046063" y="21635357"/>
           <a:ext cx="1915141" cy="550991"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3850,7 +3878,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="104" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -3861,7 +3889,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="98"/>
+      <c r="A11" s="105"/>
       <c r="B11" s="14" t="s">
         <v>77</v>
       </c>
@@ -3870,7 +3898,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="99"/>
+      <c r="A12" s="106"/>
       <c r="B12" s="14" t="s">
         <v>113</v>
       </c>
@@ -3879,23 +3907,23 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="66">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="107" t="s">
         <v>115</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="66">
-      <c r="A14" s="99"/>
+      <c r="A14" s="106"/>
       <c r="B14" s="14" t="s">
         <v>79</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="99">
@@ -3906,7 +3934,7 @@
         <v>80</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3932,7 +3960,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="49.5">
-      <c r="A18" s="100" t="s">
+      <c r="A18" s="107" t="s">
         <v>117</v>
       </c>
       <c r="B18" s="46" t="s">
@@ -3943,7 +3971,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="33">
-      <c r="A19" s="99"/>
+      <c r="A19" s="106"/>
       <c r="B19" s="38" t="s">
         <v>108</v>
       </c>
@@ -3958,8 +3986,8 @@
       <c r="B20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="100" t="s">
-        <v>413</v>
+      <c r="C20" s="107" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="47.25" customHeight="1">
@@ -3969,11 +3997,11 @@
       <c r="B21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="99"/>
+      <c r="C21" s="106"/>
       <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" ht="33">
-      <c r="A22" s="97" t="s">
+      <c r="A22" s="104" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -3984,7 +4012,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="33">
-      <c r="A23" s="99"/>
+      <c r="A23" s="106"/>
       <c r="B23" s="43" t="s">
         <v>99</v>
       </c>
@@ -3993,7 +4021,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="100" t="s">
+      <c r="A24" s="107" t="s">
         <v>120</v>
       </c>
       <c r="B24" s="14" t="s">
@@ -4004,7 +4032,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="98"/>
+      <c r="A25" s="105"/>
       <c r="B25" s="14" t="s">
         <v>94</v>
       </c>
@@ -4013,7 +4041,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="98"/>
+      <c r="A26" s="105"/>
       <c r="B26" s="14" t="s">
         <v>95</v>
       </c>
@@ -4022,7 +4050,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="98"/>
+      <c r="A27" s="105"/>
       <c r="B27" s="14" t="s">
         <v>122</v>
       </c>
@@ -4031,7 +4059,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="98"/>
+      <c r="A28" s="105"/>
       <c r="B28" s="14" t="s">
         <v>96</v>
       </c>
@@ -4040,7 +4068,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="99"/>
+      <c r="A29" s="106"/>
       <c r="B29" s="14" t="s">
         <v>97</v>
       </c>
@@ -4084,17 +4112,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="26.25">
-      <c r="A2" s="105" t="s">
-        <v>415</v>
-      </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
+      <c r="A2" s="112" t="s">
+        <v>391</v>
+      </c>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="89"/>
@@ -4107,98 +4135,98 @@
       <c r="H3" s="89"/>
     </row>
     <row r="4" spans="1:12" ht="20.25">
-      <c r="A4" s="104" t="s">
-        <v>429</v>
-      </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
+      <c r="A4" s="111" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
     </row>
     <row r="5" spans="1:12" ht="20.25">
       <c r="A5" s="91" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="B5" s="91" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="C5" s="91" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="D5" s="91" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="E5" s="91" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="F5" s="91" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="G5" s="91" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="H5" s="91" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="I5" s="91" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="J5" s="91" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="K5" s="91"/>
       <c r="L5" s="91"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="14" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="14" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="B7" s="90" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="90" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
@@ -4207,11 +4235,11 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="14" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -4225,11 +4253,11 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="14" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -4243,11 +4271,11 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="14" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -4255,7 +4283,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
@@ -4263,11 +4291,11 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="14" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -4280,82 +4308,82 @@
       <c r="L11" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="20.25">
-      <c r="A14" s="101" t="s">
-        <v>428</v>
-      </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="103"/>
+      <c r="A14" s="108" t="s">
+        <v>404</v>
+      </c>
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="110"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="93" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="B46" s="93" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="C46" s="93" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="94" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="B47" s="94" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="C47" s="95" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="92" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="B48" s="92" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="C48" s="96" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="92"/>
       <c r="B49" s="92"/>
       <c r="C49" s="96" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="92"/>
       <c r="B50" s="92"/>
       <c r="C50" s="92" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="92"/>
       <c r="B51" s="92"/>
       <c r="C51" s="92" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="92"/>
       <c r="B52" s="92" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="C52" s="96" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="C53" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -4375,8 +4403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="86.625" defaultRowHeight="16.5"/>
@@ -4432,7 +4460,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="73" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B5" s="73" t="s">
         <v>199</v>
@@ -4446,7 +4474,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="73" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="B6" s="73" t="s">
         <v>196</v>
@@ -4459,25 +4487,25 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
-      <c r="A7" s="106" t="s">
-        <v>377</v>
-      </c>
-      <c r="B7" s="106" t="s">
+      <c r="A7" s="119" t="s">
+        <v>359</v>
+      </c>
+      <c r="B7" s="119" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="113" t="s">
         <v>192</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27">
-      <c r="A8" s="106"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="107"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="51" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4534,11 +4562,11 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="116" t="s">
         <v>190</v>
       </c>
       <c r="B14" s="78" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="C14" s="51" t="s">
         <v>189</v>
@@ -4548,9 +4576,9 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="109"/>
+      <c r="A15" s="117"/>
       <c r="B15" s="78" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="C15" s="51" t="s">
         <v>187</v>
@@ -4560,7 +4588,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="109"/>
+      <c r="A16" s="117"/>
       <c r="B16" s="51" t="s">
         <v>185</v>
       </c>
@@ -4572,7 +4600,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="109"/>
+      <c r="A17" s="117"/>
       <c r="B17" s="51" t="s">
         <v>182</v>
       </c>
@@ -4584,64 +4612,64 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="27">
-      <c r="A18" s="109"/>
-      <c r="B18" s="107" t="s">
+      <c r="A18" s="117"/>
+      <c r="B18" s="113" t="s">
         <v>179</v>
       </c>
       <c r="C18" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="D18" s="107" t="s">
+      <c r="D18" s="113" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="109"/>
-      <c r="B19" s="107"/>
+      <c r="A19" s="117"/>
+      <c r="B19" s="113"/>
       <c r="C19" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="D19" s="107"/>
+      <c r="D19" s="113"/>
     </row>
     <row r="20" spans="1:4" ht="27">
-      <c r="A20" s="109"/>
-      <c r="B20" s="107" t="s">
+      <c r="A20" s="117"/>
+      <c r="B20" s="113" t="s">
         <v>175</v>
       </c>
       <c r="C20" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="D20" s="107" t="s">
+      <c r="D20" s="113" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="109"/>
-      <c r="B21" s="107"/>
+      <c r="A21" s="117"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="107"/>
+      <c r="D21" s="113"/>
     </row>
     <row r="22" spans="1:4" ht="27">
-      <c r="A22" s="109"/>
-      <c r="B22" s="107" t="s">
+      <c r="A22" s="117"/>
+      <c r="B22" s="113" t="s">
         <v>171</v>
       </c>
       <c r="C22" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="107" t="s">
+      <c r="D22" s="113" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="110"/>
-      <c r="B23" s="107"/>
+      <c r="A23" s="118"/>
+      <c r="B23" s="113"/>
       <c r="C23" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="D23" s="107"/>
+      <c r="D23" s="113"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="60"/>
@@ -4732,25 +4760,25 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="107" t="s">
+      <c r="A34" s="113" t="s">
         <v>154</v>
       </c>
-      <c r="B34" s="107" t="s">
+      <c r="B34" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="C34" s="111" t="s">
+      <c r="C34" s="114" t="s">
         <v>152</v>
       </c>
-      <c r="D34" s="112"/>
+      <c r="D34" s="115"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="107"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="112"/>
+      <c r="A35" s="113"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="115"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="107"/>
+      <c r="A36" s="113"/>
       <c r="B36" s="51" t="s">
         <v>151</v>
       </c>
@@ -4760,7 +4788,7 @@
       <c r="D36" s="53"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="107"/>
+      <c r="A37" s="113"/>
       <c r="B37" s="51" t="s">
         <v>149</v>
       </c>
@@ -4770,7 +4798,7 @@
       <c r="D37" s="53"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="107"/>
+      <c r="A38" s="113"/>
       <c r="B38" s="57" t="s">
         <v>147</v>
       </c>
@@ -4780,45 +4808,45 @@
       <c r="D38" s="53"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="107"/>
+      <c r="A39" s="113"/>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
       <c r="D39" s="53"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="107"/>
+      <c r="A40" s="113"/>
       <c r="B40" s="54" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="C40" s="77" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="D40" s="53"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="107"/>
+      <c r="A41" s="113"/>
       <c r="B41" s="54" t="s">
-        <v>468</v>
+        <v>438</v>
       </c>
       <c r="C41" s="77" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="D41" s="53"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="107"/>
+      <c r="A42" s="113"/>
       <c r="B42" s="51" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="C42" s="77" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="D42" s="53"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="107"/>
+      <c r="A43" s="113"/>
       <c r="B43" s="51" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="C43" s="51" t="s">
         <v>145</v>
@@ -4826,9 +4854,9 @@
       <c r="D43" s="53"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="107"/>
+      <c r="A44" s="113"/>
       <c r="B44" s="51" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="C44" s="51" t="s">
         <v>144</v>
@@ -4836,25 +4864,25 @@
       <c r="D44" s="53"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="107"/>
+      <c r="A45" s="113"/>
       <c r="B45" s="53"/>
       <c r="C45" s="53"/>
       <c r="D45" s="53"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="107"/>
-      <c r="B46" s="129" t="s">
+      <c r="A46" s="113"/>
+      <c r="B46" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="130" t="s">
+      <c r="C46" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="D46" s="130" t="s">
-        <v>376</v>
+      <c r="D46" s="98" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="107"/>
+      <c r="A47" s="113"/>
       <c r="B47" s="86" t="s">
         <v>141</v>
       </c>
@@ -4862,11 +4890,11 @@
         <v>140</v>
       </c>
       <c r="D47" s="85" t="s">
-        <v>380</v>
+        <v>473</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="107"/>
+      <c r="A48" s="113"/>
       <c r="B48" s="54" t="s">
         <v>139</v>
       </c>
@@ -4876,7 +4904,7 @@
       <c r="D48" s="53"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="107"/>
+      <c r="A49" s="113"/>
       <c r="B49" s="54" t="s">
         <v>137</v>
       </c>
@@ -4900,57 +4928,57 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="108" t="s">
+      <c r="A53" s="116" t="s">
         <v>131</v>
       </c>
-      <c r="B53" s="130" t="s">
+      <c r="B53" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="C53" s="130" t="s">
+      <c r="C53" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="D53" s="130" t="s">
-        <v>461</v>
+      <c r="D53" s="98" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="109"/>
-      <c r="B54" s="131" t="s">
-        <v>471</v>
-      </c>
-      <c r="C54" s="131" t="s">
-        <v>393</v>
-      </c>
-      <c r="D54" s="131" t="s">
-        <v>460</v>
+      <c r="A54" s="117"/>
+      <c r="B54" s="99" t="s">
+        <v>441</v>
+      </c>
+      <c r="C54" s="99" t="s">
+        <v>370</v>
+      </c>
+      <c r="D54" s="99" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="109"/>
-      <c r="B55" s="130" t="s">
+      <c r="A55" s="117"/>
+      <c r="B55" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="130" t="s">
-        <v>394</v>
-      </c>
-      <c r="D55" s="130" t="s">
-        <v>462</v>
+      <c r="C55" s="98" t="s">
+        <v>371</v>
+      </c>
+      <c r="D55" s="98" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="109"/>
-      <c r="B56" s="130" t="s">
+      <c r="A56" s="117"/>
+      <c r="B56" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="130" t="s">
-        <v>395</v>
-      </c>
-      <c r="D56" s="130" t="s">
-        <v>463</v>
+      <c r="C56" s="98" t="s">
+        <v>372</v>
+      </c>
+      <c r="D56" s="98" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="110"/>
+      <c r="A57" s="118"/>
       <c r="B57" s="51" t="s">
         <v>126</v>
       </c>
@@ -4958,16 +4986,11 @@
         <v>125</v>
       </c>
       <c r="D57" s="51" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A34:A49"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -4978,6 +5001,11 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A34:A49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4989,8 +5017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5012,325 +5040,325 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="36" customHeight="1">
-      <c r="A2" s="121" t="s">
-        <v>358</v>
-      </c>
-      <c r="B2" s="116" t="s">
-        <v>357</v>
+      <c r="A2" s="120" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" s="123" t="s">
+        <v>342</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="D2" s="71" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="81" customHeight="1">
-      <c r="A3" s="118"/>
-      <c r="B3" s="116"/>
+      <c r="A3" s="121"/>
+      <c r="B3" s="123"/>
       <c r="C3" s="18" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="E3" s="63" t="s">
-        <v>351</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="42.75">
-      <c r="A4" s="118"/>
-      <c r="B4" s="116"/>
+      <c r="A4" s="121"/>
+      <c r="B4" s="123"/>
       <c r="C4" s="5" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>477</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="57">
-      <c r="A5" s="118"/>
-      <c r="B5" s="116"/>
+      <c r="A5" s="121"/>
+      <c r="B5" s="123"/>
       <c r="C5" s="5" t="s">
-        <v>475</v>
+        <v>445</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="118"/>
-      <c r="B6" s="116"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="123"/>
       <c r="C6" s="5" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="42.75" customHeight="1">
-      <c r="A7" s="118"/>
-      <c r="B7" s="116"/>
+      <c r="A7" s="121"/>
+      <c r="B7" s="123"/>
       <c r="C7" s="72" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="E7" s="88" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="86.25" customHeight="1">
-      <c r="A8" s="118"/>
-      <c r="B8" s="116"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="123"/>
       <c r="C8" s="83" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="84" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="E8" s="87" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="42.75">
-      <c r="A9" s="118"/>
-      <c r="B9" s="116" t="s">
-        <v>345</v>
+      <c r="A9" s="121"/>
+      <c r="B9" s="123" t="s">
+        <v>331</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="57">
-      <c r="A10" s="118"/>
-      <c r="B10" s="116"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="80" t="s">
-        <v>343</v>
+        <v>476</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="42.75">
-      <c r="A11" s="118"/>
-      <c r="B11" s="116"/>
+      <c r="A11" s="121"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="19" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="118"/>
-      <c r="B12" s="116"/>
+      <c r="A12" s="121"/>
+      <c r="B12" s="123"/>
       <c r="C12" s="4" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="E12" s="4"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="118"/>
-      <c r="B13" s="116"/>
+      <c r="A13" s="121"/>
+      <c r="B13" s="123"/>
       <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="118"/>
-      <c r="B14" s="116"/>
+      <c r="A14" s="121"/>
+      <c r="B14" s="123"/>
       <c r="C14" s="19" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>370</v>
+        <v>482</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="28.5">
-      <c r="A15" s="118"/>
-      <c r="B15" s="116"/>
+      <c r="A15" s="121"/>
+      <c r="B15" s="123"/>
       <c r="C15" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="69" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>328</v>
+        <v>481</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="118"/>
-      <c r="B16" s="116"/>
+      <c r="A16" s="121"/>
+      <c r="B16" s="123"/>
       <c r="C16" s="5" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="E16" s="5"/>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="118"/>
-      <c r="B17" s="116"/>
+      <c r="A17" s="121"/>
+      <c r="B17" s="123"/>
       <c r="C17" s="4" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="D17" s="79" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="118"/>
-      <c r="B18" s="116"/>
+      <c r="A18" s="121"/>
+      <c r="B18" s="123"/>
       <c r="C18" s="5" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="118"/>
-      <c r="B19" s="116"/>
+      <c r="A19" s="121"/>
+      <c r="B19" s="123"/>
       <c r="C19" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="118"/>
-      <c r="B20" s="116"/>
+      <c r="A20" s="121"/>
+      <c r="B20" s="123"/>
       <c r="C20" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="28.5">
-      <c r="A21" s="118"/>
-      <c r="B21" s="116"/>
+      <c r="A21" s="121"/>
+      <c r="B21" s="123"/>
       <c r="C21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="57">
-      <c r="A22" s="118"/>
-      <c r="B22" s="116" t="s">
-        <v>324</v>
+      <c r="A22" s="121"/>
+      <c r="B22" s="123" t="s">
+        <v>312</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="118"/>
-      <c r="B23" s="116"/>
+      <c r="A23" s="121"/>
+      <c r="B23" s="123"/>
       <c r="C23" s="5" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="28.5">
-      <c r="A24" s="118"/>
-      <c r="B24" s="116"/>
+      <c r="A24" s="121"/>
+      <c r="B24" s="123"/>
       <c r="C24" s="5" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="57">
-      <c r="A25" s="119"/>
-      <c r="B25" s="116"/>
+      <c r="A25" s="122"/>
+      <c r="B25" s="123"/>
       <c r="C25" s="18" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="E25" s="63" t="s">
-        <v>465</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5343,380 +5371,380 @@
     <row r="27" spans="1:5" ht="209.25" customHeight="1">
       <c r="A27" s="47"/>
       <c r="B27" s="47" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="26"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="71.25">
-      <c r="A28" s="120" t="s">
-        <v>312</v>
-      </c>
-      <c r="B28" s="120" t="s">
-        <v>311</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>392</v>
+      <c r="A28" s="124" t="s">
+        <v>300</v>
+      </c>
+      <c r="B28" s="124" t="s">
+        <v>299</v>
+      </c>
+      <c r="C28" s="136" t="s">
+        <v>465</v>
+      </c>
+      <c r="D28" s="137" t="s">
+        <v>298</v>
+      </c>
+      <c r="E28" s="138" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="114">
-      <c r="A29" s="116"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>391</v>
+      <c r="A29" s="123"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="136" t="s">
+        <v>297</v>
+      </c>
+      <c r="D29" s="137" t="s">
+        <v>296</v>
+      </c>
+      <c r="E29" s="138" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="85.5">
-      <c r="A30" s="116"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>390</v>
+      <c r="A30" s="123"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="136" t="s">
+        <v>295</v>
+      </c>
+      <c r="D30" s="137" t="s">
+        <v>294</v>
+      </c>
+      <c r="E30" s="138" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="116"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="135" t="s">
-        <v>304</v>
-      </c>
-      <c r="D31" s="136" t="s">
-        <v>303</v>
-      </c>
-      <c r="E31" s="137" t="s">
-        <v>472</v>
+      <c r="A31" s="123"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="139" t="s">
+        <v>293</v>
+      </c>
+      <c r="D31" s="140" t="s">
+        <v>292</v>
+      </c>
+      <c r="E31" s="141" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="42.75">
-      <c r="A32" s="116"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="138" t="s">
-        <v>368</v>
+      <c r="A32" s="123"/>
+      <c r="B32" s="123"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="142" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="116"/>
-      <c r="B33" s="116"/>
+      <c r="A33" s="123"/>
+      <c r="B33" s="123"/>
       <c r="C33" s="5" t="s">
-        <v>302</v>
+        <v>474</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="5" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="116"/>
-      <c r="B34" s="116"/>
+      <c r="A34" s="123"/>
+      <c r="B34" s="123"/>
       <c r="C34" s="5" t="s">
-        <v>301</v>
+        <v>467</v>
       </c>
       <c r="D34" s="26"/>
       <c r="E34" s="5" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="116"/>
-      <c r="B35" s="116"/>
+      <c r="A35" s="123"/>
+      <c r="B35" s="123"/>
       <c r="C35" s="5" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="5" t="s">
-        <v>480</v>
+        <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="116"/>
-      <c r="B36" s="116"/>
+      <c r="A36" s="123"/>
+      <c r="B36" s="123"/>
       <c r="C36" s="5" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="5" t="s">
-        <v>481</v>
+        <v>449</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="114">
-      <c r="A37" s="116"/>
-      <c r="B37" s="116"/>
+      <c r="A37" s="123"/>
+      <c r="B37" s="123"/>
       <c r="C37" s="18" t="s">
-        <v>298</v>
+        <v>459</v>
       </c>
       <c r="D37" s="64" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E37" s="63" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="116"/>
-      <c r="B38" s="116"/>
+      <c r="A38" s="123"/>
+      <c r="B38" s="123"/>
       <c r="C38" s="5" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="5" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="116"/>
-      <c r="B39" s="116"/>
+      <c r="A39" s="123"/>
+      <c r="B39" s="123"/>
       <c r="C39" s="5" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" ht="28.5">
-      <c r="A40" s="116"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="132" t="s">
-        <v>293</v>
-      </c>
-      <c r="D40" s="133" t="s">
-        <v>292</v>
-      </c>
-      <c r="E40" s="134" t="s">
-        <v>469</v>
+    <row r="40" spans="1:5" ht="57">
+      <c r="A40" s="123"/>
+      <c r="B40" s="123"/>
+      <c r="C40" s="100" t="s">
+        <v>285</v>
+      </c>
+      <c r="D40" s="101" t="s">
+        <v>451</v>
+      </c>
+      <c r="E40" s="102" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="42.75">
-      <c r="A41" s="116"/>
-      <c r="B41" s="116"/>
+      <c r="A41" s="123"/>
+      <c r="B41" s="123"/>
       <c r="C41" s="18" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D41" s="64" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E41" s="63" t="s">
-        <v>289</v>
+        <v>463</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="116"/>
-      <c r="B42" s="116"/>
+      <c r="A42" s="123"/>
+      <c r="B42" s="123"/>
       <c r="C42" s="5" t="s">
-        <v>288</v>
+        <v>468</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="116"/>
-      <c r="B43" s="120" t="s">
-        <v>286</v>
+      <c r="A43" s="123"/>
+      <c r="B43" s="124" t="s">
+        <v>452</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D43" s="26"/>
       <c r="E43" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="116"/>
-      <c r="B44" s="116"/>
+      <c r="A44" s="123"/>
+      <c r="B44" s="123"/>
       <c r="C44" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="116"/>
-      <c r="B45" s="116"/>
+      <c r="A45" s="123"/>
+      <c r="B45" s="123"/>
       <c r="C45" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D45" s="26"/>
       <c r="E45" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="116"/>
-      <c r="B46" s="116"/>
+      <c r="A46" s="123"/>
+      <c r="B46" s="123"/>
       <c r="C46" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D46" s="26"/>
       <c r="E46" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="42.75">
-      <c r="A47" s="116"/>
-      <c r="B47" s="116"/>
+      <c r="A47" s="123"/>
+      <c r="B47" s="123"/>
       <c r="C47" s="16" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D47" s="37"/>
       <c r="E47" s="17" t="s">
-        <v>276</v>
+        <v>462</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="116"/>
-      <c r="B48" s="120" t="s">
-        <v>275</v>
+      <c r="A48" s="123"/>
+      <c r="B48" s="124" t="s">
+        <v>453</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="26"/>
       <c r="E48" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="116"/>
-      <c r="B49" s="116"/>
+      <c r="A49" s="123"/>
+      <c r="B49" s="123"/>
       <c r="C49" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="26"/>
       <c r="E49" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="116"/>
-      <c r="B50" s="116"/>
+      <c r="A50" s="123"/>
+      <c r="B50" s="123"/>
       <c r="C50" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="26"/>
       <c r="E50" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="116"/>
-      <c r="B51" s="116"/>
+      <c r="A51" s="123"/>
+      <c r="B51" s="123"/>
       <c r="C51" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="26"/>
       <c r="E51" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="42.75">
-      <c r="A52" s="116"/>
-      <c r="B52" s="116"/>
+      <c r="A52" s="123"/>
+      <c r="B52" s="123"/>
       <c r="C52" s="16" t="s">
-        <v>270</v>
+        <v>472</v>
       </c>
       <c r="D52" s="37"/>
       <c r="E52" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="28.5">
-      <c r="A53" s="116"/>
-      <c r="B53" s="116" t="s">
-        <v>268</v>
+      <c r="A53" s="123"/>
+      <c r="B53" s="123" t="s">
+        <v>267</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="116"/>
-      <c r="B54" s="116"/>
+      <c r="A54" s="123"/>
+      <c r="B54" s="123"/>
       <c r="C54" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="116"/>
-      <c r="B55" s="116"/>
+      <c r="A55" s="123"/>
+      <c r="B55" s="123"/>
       <c r="C55" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" ht="28.5">
-      <c r="A56" s="116"/>
-      <c r="B56" s="116" t="s">
-        <v>459</v>
+      <c r="A56" s="123"/>
+      <c r="B56" s="123" t="s">
+        <v>454</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="116"/>
-      <c r="B57" s="116"/>
+      <c r="A57" s="123"/>
+      <c r="B57" s="123"/>
       <c r="C57" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="116"/>
-      <c r="B58" s="116"/>
+      <c r="A58" s="123"/>
+      <c r="B58" s="123"/>
       <c r="C58" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E58" s="5"/>
     </row>
@@ -5728,150 +5756,150 @@
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="99.75">
-      <c r="A60" s="121" t="s">
-        <v>252</v>
-      </c>
-      <c r="B60" s="124" t="s">
+      <c r="A60" s="120" t="s">
         <v>251</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="B60" s="131" t="s">
         <v>250</v>
       </c>
-      <c r="D60" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="E60" s="20" t="s">
+      <c r="C60" s="103" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="122"/>
-      <c r="B61" s="125"/>
-      <c r="C61" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>383</v>
-      </c>
-      <c r="E61" s="20"/>
+      <c r="D60" s="137" t="s">
+        <v>456</v>
+      </c>
+      <c r="E60" s="138" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="28.5">
+      <c r="A61" s="129"/>
+      <c r="B61" s="132"/>
+      <c r="C61" s="103" t="s">
+        <v>362</v>
+      </c>
+      <c r="D61" s="137" t="s">
+        <v>455</v>
+      </c>
+      <c r="E61" s="138"/>
     </row>
     <row r="62" spans="1:5" ht="57">
-      <c r="A62" s="118"/>
-      <c r="B62" s="123" t="s">
-        <v>248</v>
+      <c r="A62" s="121"/>
+      <c r="B62" s="130" t="s">
+        <v>247</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="42.75">
-      <c r="A63" s="118"/>
-      <c r="B63" s="123"/>
+      <c r="A63" s="121"/>
+      <c r="B63" s="130"/>
       <c r="C63" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="42.75">
-      <c r="A64" s="118"/>
-      <c r="B64" s="123"/>
+      <c r="A64" s="121"/>
+      <c r="B64" s="130"/>
       <c r="C64" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="42.75">
-      <c r="A65" s="118"/>
-      <c r="B65" s="123"/>
+      <c r="A65" s="121"/>
+      <c r="B65" s="130"/>
       <c r="C65" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D65" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="57">
-      <c r="A66" s="118"/>
-      <c r="B66" s="123"/>
+      <c r="A66" s="121"/>
+      <c r="B66" s="130"/>
       <c r="C66" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="57">
-      <c r="A67" s="118"/>
-      <c r="B67" s="123"/>
+      <c r="A67" s="121"/>
+      <c r="B67" s="130"/>
       <c r="C67" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="42.75">
-      <c r="A68" s="118"/>
-      <c r="B68" s="123"/>
+      <c r="A68" s="121"/>
+      <c r="B68" s="130"/>
       <c r="C68" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="28.5">
-      <c r="A69" s="118"/>
-      <c r="B69" s="123"/>
+      <c r="A69" s="121"/>
+      <c r="B69" s="130"/>
       <c r="C69" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="71.25">
-      <c r="A70" s="119"/>
-      <c r="B70" s="123"/>
-      <c r="C70" s="31" t="s">
-        <v>396</v>
+      <c r="A70" s="122"/>
+      <c r="B70" s="130"/>
+      <c r="C70" s="143" t="s">
+        <v>458</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>228</v>
+        <v>457</v>
       </c>
       <c r="E70" s="36" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -5889,10 +5917,10 @@
       <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:5" ht="57">
-      <c r="A73" s="113" t="s">
+      <c r="A73" s="125" t="s">
         <v>227</v>
       </c>
-      <c r="B73" s="117" t="s">
+      <c r="B73" s="128" t="s">
         <v>226</v>
       </c>
       <c r="C73" s="32" t="s">
@@ -5906,8 +5934,8 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="114"/>
-      <c r="B74" s="118"/>
+      <c r="A74" s="126"/>
+      <c r="B74" s="121"/>
       <c r="C74" s="32" t="s">
         <v>221</v>
       </c>
@@ -5917,19 +5945,19 @@
       <c r="E74" s="32"/>
     </row>
     <row r="75" spans="1:5" ht="42.75">
-      <c r="A75" s="114"/>
-      <c r="B75" s="118"/>
+      <c r="A75" s="126"/>
+      <c r="B75" s="121"/>
       <c r="C75" s="32" t="s">
         <v>225</v>
       </c>
       <c r="D75" s="33"/>
       <c r="E75" s="34" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="85.5">
-      <c r="A76" s="114"/>
-      <c r="B76" s="118"/>
+      <c r="A76" s="126"/>
+      <c r="B76" s="121"/>
       <c r="C76" s="32" t="s">
         <v>219</v>
       </c>
@@ -5937,12 +5965,12 @@
         <v>218</v>
       </c>
       <c r="E76" s="34" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="42.75">
-      <c r="A77" s="114"/>
-      <c r="B77" s="118"/>
+      <c r="A77" s="126"/>
+      <c r="B77" s="121"/>
       <c r="C77" s="4" t="s">
         <v>217</v>
       </c>
@@ -5950,12 +5978,12 @@
         <v>216</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="114"/>
-      <c r="B78" s="118"/>
+      <c r="A78" s="126"/>
+      <c r="B78" s="121"/>
       <c r="C78" s="4" t="s">
         <v>215</v>
       </c>
@@ -5965,34 +5993,34 @@
       <c r="E78" s="5"/>
     </row>
     <row r="79" spans="1:5" ht="57">
-      <c r="A79" s="114"/>
-      <c r="B79" s="118"/>
+      <c r="A79" s="126"/>
+      <c r="B79" s="121"/>
       <c r="C79" s="31" t="s">
         <v>213</v>
       </c>
       <c r="D79" s="33" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="E79" s="34" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="42.75">
-      <c r="A80" s="114"/>
-      <c r="B80" s="118"/>
+      <c r="A80" s="126"/>
+      <c r="B80" s="121"/>
       <c r="C80" s="32" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="D80" s="33" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="E80" s="34" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="114"/>
-      <c r="B81" s="118"/>
+      <c r="A81" s="126"/>
+      <c r="B81" s="121"/>
       <c r="C81" s="31" t="s">
         <v>211</v>
       </c>
@@ -6002,8 +6030,8 @@
       <c r="E81" s="32"/>
     </row>
     <row r="82" spans="1:5" ht="57">
-      <c r="A82" s="115"/>
-      <c r="B82" s="119"/>
+      <c r="A82" s="127"/>
+      <c r="B82" s="122"/>
       <c r="C82" s="4" t="s">
         <v>209</v>
       </c>
@@ -6016,13 +6044,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B28:B42"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B9:B21"/>
-    <mergeCell ref="A28:A58"/>
     <mergeCell ref="A73:A82"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
@@ -6033,6 +6054,13 @@
     <mergeCell ref="A60:A70"/>
     <mergeCell ref="B62:B70"/>
     <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B28:B42"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="A28:A58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6068,7 +6096,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="135" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="48" t="s">
@@ -6079,7 +6107,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25">
-      <c r="A3" s="126"/>
+      <c r="A3" s="135"/>
       <c r="B3" s="48" t="s">
         <v>20</v>
       </c>
@@ -6088,7 +6116,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="36.75" customHeight="1">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="135" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="48" t="s">
@@ -6099,7 +6127,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="34.5">
-      <c r="A5" s="126"/>
+      <c r="A5" s="135"/>
       <c r="B5" s="48" t="s">
         <v>26</v>
       </c>
@@ -6108,7 +6136,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="34.5">
-      <c r="A6" s="126"/>
+      <c r="A6" s="135"/>
       <c r="B6" s="48" t="s">
         <v>28</v>
       </c>
@@ -6117,7 +6145,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="34.5">
-      <c r="A7" s="126"/>
+      <c r="A7" s="135"/>
       <c r="B7" s="48" t="s">
         <v>23</v>
       </c>
@@ -6126,7 +6154,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="135" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="48" t="s">
@@ -6137,7 +6165,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25">
-      <c r="A9" s="126"/>
+      <c r="A9" s="135"/>
       <c r="B9" s="48" t="s">
         <v>35</v>
       </c>
@@ -6146,7 +6174,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="34.5">
-      <c r="A10" s="126"/>
+      <c r="A10" s="135"/>
       <c r="B10" s="48" t="s">
         <v>32</v>
       </c>
@@ -6155,25 +6183,25 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.25" hidden="1" customHeight="1">
-      <c r="A11" s="127" t="s">
+      <c r="A11" s="133" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="133" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25" hidden="1">
-      <c r="A12" s="128"/>
+      <c r="A12" s="134"/>
       <c r="B12" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="128"/>
+      <c r="C12" s="134"/>
     </row>
     <row r="13" spans="1:3" ht="17.25">
-      <c r="A13" s="126" t="s">
+      <c r="A13" s="135" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="48" t="s">
@@ -6184,7 +6212,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25">
-      <c r="A14" s="126"/>
+      <c r="A14" s="135"/>
       <c r="B14" s="48" t="s">
         <v>45</v>
       </c>
@@ -6193,7 +6221,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25">
-      <c r="A15" s="126"/>
+      <c r="A15" s="135"/>
       <c r="B15" s="48" t="s">
         <v>47</v>
       </c>
@@ -6202,7 +6230,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="34.5">
-      <c r="A16" s="126"/>
+      <c r="A16" s="135"/>
       <c r="B16" s="48" t="s">
         <v>49</v>
       </c>
@@ -6211,7 +6239,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="34.5">
-      <c r="A17" s="126"/>
+      <c r="A17" s="135"/>
       <c r="B17" s="48" t="s">
         <v>42</v>
       </c>
@@ -6220,7 +6248,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25">
-      <c r="A18" s="126" t="s">
+      <c r="A18" s="135" t="s">
         <v>52</v>
       </c>
       <c r="B18" s="48" t="s">
@@ -6231,7 +6259,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25">
-      <c r="A19" s="126"/>
+      <c r="A19" s="135"/>
       <c r="B19" s="48" t="s">
         <v>43</v>
       </c>
@@ -6240,7 +6268,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25">
-      <c r="A20" s="126"/>
+      <c r="A20" s="135"/>
       <c r="B20" s="48" t="s">
         <v>45</v>
       </c>
@@ -6249,7 +6277,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25">
-      <c r="A21" s="126"/>
+      <c r="A21" s="135"/>
       <c r="B21" s="48" t="s">
         <v>47</v>
       </c>
@@ -6258,7 +6286,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="51.75">
-      <c r="A22" s="126"/>
+      <c r="A22" s="135"/>
       <c r="B22" s="48" t="s">
         <v>53</v>
       </c>
@@ -6267,7 +6295,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="34.5">
-      <c r="A23" s="126" t="s">
+      <c r="A23" s="135" t="s">
         <v>59</v>
       </c>
       <c r="B23" s="48" t="s">
@@ -6278,42 +6306,42 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.25">
-      <c r="A24" s="126"/>
+      <c r="A24" s="135"/>
       <c r="B24" s="48" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="22"/>
     </row>
     <row r="25" spans="1:3" ht="17.25">
-      <c r="A25" s="126"/>
+      <c r="A25" s="135"/>
       <c r="B25" s="48" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="22"/>
     </row>
     <row r="26" spans="1:3" ht="17.25">
-      <c r="A26" s="126"/>
+      <c r="A26" s="135"/>
       <c r="B26" s="48" t="s">
         <v>67</v>
       </c>
       <c r="C26" s="22"/>
     </row>
     <row r="27" spans="1:3" ht="17.25">
-      <c r="A27" s="126"/>
+      <c r="A27" s="135"/>
       <c r="B27" s="48" t="s">
         <v>68</v>
       </c>
       <c r="C27" s="22"/>
     </row>
     <row r="28" spans="1:3" ht="17.25">
-      <c r="A28" s="126"/>
+      <c r="A28" s="135"/>
       <c r="B28" s="48" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="22"/>
     </row>
     <row r="29" spans="1:3" ht="17.25">
-      <c r="A29" s="126" t="s">
+      <c r="A29" s="135" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="48" t="s">
@@ -6322,35 +6350,35 @@
       <c r="C29" s="22"/>
     </row>
     <row r="30" spans="1:3" ht="17.25">
-      <c r="A30" s="126"/>
+      <c r="A30" s="135"/>
       <c r="B30" s="48" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:3" ht="17.25">
-      <c r="A31" s="126"/>
+      <c r="A31" s="135"/>
       <c r="B31" s="48" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:3" ht="17.25">
-      <c r="A32" s="126"/>
+      <c r="A32" s="135"/>
       <c r="B32" s="48" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="22"/>
     </row>
     <row r="33" spans="1:3" ht="17.25">
-      <c r="A33" s="126"/>
+      <c r="A33" s="135"/>
       <c r="B33" s="48" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="22"/>
     </row>
     <row r="34" spans="1:3" ht="17.25">
-      <c r="A34" s="126"/>
+      <c r="A34" s="135"/>
       <c r="B34" s="48" t="s">
         <v>42</v>
       </c>
@@ -6361,14 +6389,14 @@
         <v>63</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="C35" s="48" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="34.5">
-      <c r="A36" s="126" t="s">
+      <c r="A36" s="135" t="s">
         <v>18</v>
       </c>
       <c r="B36" s="48" t="s">
@@ -6379,7 +6407,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="34.5">
-      <c r="A37" s="126"/>
+      <c r="A37" s="135"/>
       <c r="B37" s="48" t="s">
         <v>71</v>
       </c>
@@ -6388,7 +6416,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="34.5">
-      <c r="A38" s="126"/>
+      <c r="A38" s="135"/>
       <c r="B38" s="48" t="s">
         <v>72</v>
       </c>
@@ -6398,16 +6426,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
